--- a/storage/app/Colombo_brief_upload.xlsx
+++ b/storage/app/Colombo_brief_upload.xlsx
@@ -526,7 +526,9 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3"/>
+      <c r="A3">
+        <v>6</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -552,7 +554,9 @@
       <c r="X3"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4"/>
+      <c r="A4">
+        <v>8</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -578,7 +582,9 @@
       <c r="X4"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5"/>
+      <c r="A5">
+        <v>9</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -604,7 +610,9 @@
       <c r="X5"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6"/>
+      <c r="A6">
+        <v>9</v>
+      </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -630,7 +638,9 @@
       <c r="X6"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7"/>
+      <c r="A7">
+        <v>10</v>
+      </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>

--- a/storage/app/Colombo_brief_upload.xlsx
+++ b/storage/app/Colombo_brief_upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Number</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>colombo5</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>incompleted</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
 </sst>
 </file>
@@ -510,7 +519,9 @@
       </c>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2"/>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -538,7 +549,9 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -566,7 +579,9 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>

--- a/storage/app/Colombo_brief_upload.xlsx
+++ b/storage/app/Colombo_brief_upload.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
-    <t>Number</t>
+    <t>#</t>
   </si>
   <si>
     <t>Date</t>
@@ -26,58 +26,28 @@
     <t>Job Order No.</t>
   </si>
   <si>
+    <t>Company Name</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>country</t>
+    <t>Req No</t>
   </si>
   <si>
-    <t>Req. No</t>
+    <t>Total CVs</t>
   </si>
   <si>
-    <t>Total CV</t>
+    <t>Balancr Req No.</t>
   </si>
   <si>
-    <t>Bal. Req. No.</t>
-  </si>
-  <si>
-    <t>Remarks</t>
+    <t>Remark</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>PP Size Pic</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>PPT Copy</t>
-  </si>
-  <si>
-    <t>License Copy</t>
-  </si>
-  <si>
-    <t>Police Reporter</t>
-  </si>
-  <si>
-    <t>Working Video</t>
-  </si>
-  <si>
-    <t>Myself Video</t>
-  </si>
-  <si>
-    <t>Edu Cert</t>
-  </si>
-  <si>
-    <t>Other Cert</t>
+    <t>2025/04/11</t>
   </si>
   <si>
     <t>colombo5</t>
@@ -86,10 +56,10 @@
     <t>completed</t>
   </si>
   <si>
-    <t>incompleted</t>
+    <t>cancelled</t>
   </si>
   <si>
-    <t>cancelled</t>
+    <t>incompleted</t>
   </si>
 </sst>
 </file>
@@ -444,84 +414,60 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>22</v>
+      <c r="J2" t="s">
+        <v>12</v>
       </c>
+      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -540,7 +486,9 @@
       <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -548,10 +496,10 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>23</v>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
+      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -570,7 +518,9 @@
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -578,10 +528,10 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>24</v>
+      <c r="J4" t="s">
+        <v>14</v>
       </c>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -600,7 +550,9 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -628,7 +580,9 @@
       <c r="A6">
         <v>9</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -656,7 +610,9 @@
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
